--- a/ЕГЭ/Варианты/2024/Вариант 3/Задание 18/18.xlsx
+++ b/ЕГЭ/Варианты/2024/Вариант 3/Задание 18/18.xlsx
@@ -4,21 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -183,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -295,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="6.6328125" customWidth="1"/>
+    <col min="1" max="20" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>37</v>
       </c>
@@ -542,7 +538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>49</v>
       </c>
@@ -604,7 +600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>54</v>
       </c>
@@ -666,7 +662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45</v>
       </c>
@@ -728,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>20</v>
       </c>
@@ -790,7 +786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>25</v>
       </c>
@@ -852,7 +848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>22</v>
       </c>
@@ -914,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>17</v>
       </c>
@@ -976,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>55</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>47</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>17</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42</v>
       </c>
@@ -1286,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>57</v>
       </c>
@@ -1410,7 +1406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40</v>
       </c>
@@ -1472,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>18</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>37</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -1658,7 +1654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>54</v>
       </c>
@@ -1719,6 +1715,1656 @@
       <c r="T20" s="1">
         <v>9</v>
       </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f>B24 + IF(ISEVEN(A1), A1, 0)</f>
+        <v>292</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" ref="B24:T24" si="0">C24 + IF(ISEVEN(B1), B1, 0)</f>
+        <v>292</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="E24" s="4">
+        <f>F24 + IF(ISEVEN(E1), E1, 0)</f>
+        <v>286</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="S24" s="4">
+        <f>T24 + IF(ISEVEN(S1), S1, 0)</f>
+        <v>76</v>
+      </c>
+      <c r="T24" s="5">
+        <f>T1</f>
+        <v>44</v>
+      </c>
+      <c r="V24">
+        <v>1102</v>
+      </c>
+      <c r="W24">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" ref="A25:J25" si="1">MIN(A24, B25) + IF(ISEVEN(A2), A2, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ref="K25:S25" si="2">MIN(K24, L25) + IF(ISEVEN(K2), K2, 0)</f>
+        <v>112</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" ref="T25:T42" si="3">MIN(T24) + IF(ISEVEN(T2), T2, 0)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" ref="A26:A43" si="4">MIN(A25, B26) + IF(ISEVEN(A3), A3, 0)</f>
+        <v>190</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:B43" si="5">MIN(B25, C26) + IF(ISEVEN(B3), B3, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:C43" si="6">MIN(C25, D26) + IF(ISEVEN(C3), C3, 0)</f>
+        <v>136</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:F43" si="7">MIN(D25, E26) + IF(ISEVEN(D3), D3, 0)</f>
+        <v>176</v>
+      </c>
+      <c r="E26" s="7">
+        <f>MIN(E25) + IF(ISEVEN(E3), E3, 0)</f>
+        <v>146</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ref="G26:T27" si="8">MIN(G25, H26) + IF(ISEVEN(G3), G3, 0)</f>
+        <v>176</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E27:E32" si="9">MIN(E26) + IF(ISEVEN(E4), E4, 0)</f>
+        <v>168</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G43" si="10">MIN(G27, H28) + IF(ISEVEN(G5), G5, 0)</f>
+        <v>138</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28" si="11">MIN(H27, I28) + IF(ISEVEN(H5), H5, 0)</f>
+        <v>132</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" ref="I28" si="12">MIN(I27, J28) + IF(ISEVEN(I5), I5, 0)</f>
+        <v>88</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" ref="J28" si="13">MIN(J27, K28) + IF(ISEVEN(J5), J5, 0)</f>
+        <v>88</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" ref="K28" si="14">MIN(K27, L28) + IF(ISEVEN(K5), K5, 0)</f>
+        <v>88</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28" si="15">MIN(L27, M28) + IF(ISEVEN(L5), L5, 0)</f>
+        <v>138</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" ref="M28" si="16">MIN(M27, N28) + IF(ISEVEN(M5), M5, 0)</f>
+        <v>84</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" ref="N28" si="17">MIN(N27, O28) + IF(ISEVEN(N5), N5, 0)</f>
+        <v>84</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28" si="18">MIN(O27, P28) + IF(ISEVEN(O5), O5, 0)</f>
+        <v>90</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28:P43" si="19">MIN(P27, Q28) + IF(ISEVEN(P5), P5, 0)</f>
+        <v>178</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28:Q43" si="20">MIN(Q27, R28) + IF(ISEVEN(Q5), Q5, 0)</f>
+        <v>124</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" ref="R28:R43" si="21">MIN(R27, S28) + IF(ISEVEN(R5), R5, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" ref="S28:T43" si="22">MIN(S27, T28) + IF(ISEVEN(S5), S5, 0)</f>
+        <v>102</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ref="H29:N29" si="23">MIN(I29) + IF(ISEVEN(H6), H6, 0)</f>
+        <v>82</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <f>MIN(0) + IF(ISEVEN(O6), O6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="20"/>
+        <v>114</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="21"/>
+        <v>112</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="22"/>
+        <v>98</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:H43" si="24">MIN(H29, I30) + IF(ISEVEN(H7), H7, 0)</f>
+        <v>56</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I43" si="25">MIN(I29, J30) + IF(ISEVEN(I7), I7, 0)</f>
+        <v>56</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ref="J30:J43" si="26">MIN(J29, K30) + IF(ISEVEN(J7), J7, 0)</f>
+        <v>68</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30:K43" si="27">MIN(K29, L30) + IF(ISEVEN(K7), K7, 0)</f>
+        <v>38</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" ref="L30:L43" si="28">MIN(L29, M30) + IF(ISEVEN(L7), L7, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30:M43" si="29">MIN(M29, N30) + IF(ISEVEN(M7), M7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ref="N30:N43" si="30">MIN(N29, O30) + IF(ISEVEN(N7), N7, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" ref="O30:O38" si="31">MIN(O29) + IF(ISEVEN(O7), O7, 0)</f>
+        <v>54</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="19"/>
+        <v>112</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="20"/>
+        <v>112</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="21"/>
+        <v>112</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="22"/>
+        <v>140</v>
+      </c>
+      <c r="T30" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="E31" s="7">
+        <f>MIN(E30) + IF(ISEVEN(E8), E8, 0)</f>
+        <v>208</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="31"/>
+        <v>54</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="19"/>
+        <v>112</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="20"/>
+        <v>112</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="21"/>
+        <v>168</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="22"/>
+        <v>142</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="9"/>
+        <v>218</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="30"/>
+        <v>32</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="31"/>
+        <v>54</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="20"/>
+        <v>112</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="21"/>
+        <v>186</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="22"/>
+        <v>130</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33:E43" si="32">MIN(E32, F33) + IF(ISEVEN(E10), E10, 0)</f>
+        <v>80</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:F43" si="33">MIN(F32, G33) + IF(ISEVEN(F10), F10, 0)</f>
+        <v>78</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="30"/>
+        <v>44</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="21"/>
+        <v>118</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="22"/>
+        <v>102</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="32"/>
+        <v>96</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="33"/>
+        <v>108</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="29"/>
+        <v>82</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="19"/>
+        <v>124</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="20"/>
+        <v>118</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="21"/>
+        <v>102</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="22"/>
+        <v>102</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="32"/>
+        <v>96</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="33"/>
+        <v>128</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="27"/>
+        <v>82</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="29"/>
+        <v>94</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="31"/>
+        <v>116</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="21"/>
+        <v>102</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="22"/>
+        <v>102</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="32"/>
+        <v>108</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="33"/>
+        <v>66</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="21"/>
+        <v>132</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="22"/>
+        <v>138</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="32"/>
+        <v>56</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="33"/>
+        <v>56</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="30"/>
+        <v>142</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="19"/>
+        <v>154</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="21"/>
+        <v>132</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="22"/>
+        <v>140</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="32"/>
+        <v>112</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="33"/>
+        <v>56</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="28"/>
+        <v>56</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="30"/>
+        <v>156</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="21"/>
+        <v>174</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="22"/>
+        <v>130</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="32"/>
+        <v>58</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="33"/>
+        <v>58</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="26"/>
+        <v>52</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="27"/>
+        <v>70</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="28"/>
+        <v>64</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="30"/>
+        <v>140</v>
+      </c>
+      <c r="O39" s="2">
+        <f>MIN(O38, P39) + IF(ISEVEN(O16), O16, 0)</f>
+        <v>124</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="21"/>
+        <v>174</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="22"/>
+        <v>188</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="32"/>
+        <v>62</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="26"/>
+        <v>98</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="27"/>
+        <v>64</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="28"/>
+        <v>64</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="30"/>
+        <v>124</v>
+      </c>
+      <c r="O40" s="2">
+        <f>MIN(O39, P40) + IF(ISEVEN(O17), O17, 0)</f>
+        <v>124</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="20"/>
+        <v>102</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="21"/>
+        <v>208</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="22"/>
+        <v>172</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="32"/>
+        <v>68</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="25"/>
+        <v>76</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="27"/>
+        <v>64</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="28"/>
+        <v>64</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="30"/>
+        <v>154</v>
+      </c>
+      <c r="O41" s="2">
+        <f>MIN(O40, P41) + IF(ISEVEN(O18), O18, 0)</f>
+        <v>124</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="19"/>
+        <v>160</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="21"/>
+        <v>172</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="22"/>
+        <v>172</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="32"/>
+        <v>82</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="24"/>
+        <v>132</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="28"/>
+        <v>116</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="29"/>
+        <v>160</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="30"/>
+        <v>146</v>
+      </c>
+      <c r="O42" s="2">
+        <f>MIN(O41, P42) + IF(ISEVEN(O19), O19, 0)</f>
+        <v>124</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="21"/>
+        <v>194</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="22"/>
+        <v>188</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B43" s="9">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="32"/>
+        <v>96</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="24"/>
+        <v>112</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="26"/>
+        <v>66</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="28"/>
+        <v>116</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="29"/>
+        <v>146</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="30"/>
+        <v>146</v>
+      </c>
+      <c r="O43" s="9">
+        <f>MIN(O42, P43) + IF(ISEVEN(O20), O20, 0)</f>
+        <v>146</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="19"/>
+        <v>142</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="21"/>
+        <v>172</v>
+      </c>
+      <c r="S43" s="9">
+        <f t="shared" si="22"/>
+        <v>172</v>
+      </c>
+      <c r="T43" s="1">
+        <f>T42 + IF(ISEVEN(T20), T20, 0)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
